--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_8_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_8_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.57000000000009</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.727973579183123e-16</v>
+        <v>1.787079315292003e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.05818186785463</v>
+        <v>46.5280221252621</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[45.148965057904526, 50.96739867780473]</t>
+          <t>[43.70992394338282, 49.346120307141376]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.566079220708426</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.50318447288881, 1.628973968528042]</t>
+          <t>[1.5535002711445012, 1.6792897667837332]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.23130897944539</v>
+        <v>51.3326648698968</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.196012166153714, 55.26660579273706]</t>
+          <t>[49.41068548570021, 53.25464425409339]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.94444444444451</v>
+        <v>16.7191391391392</v>
       </c>
       <c r="X2" t="n">
-        <v>16.71851851851858</v>
+        <v>16.49381381381387</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.17037037037044</v>
+        <v>16.94446446446453</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.49000000000008</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.727973579183123e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.787079315292003e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6137674231351554</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.26413731431855</v>
+        <v>45.86270272222085</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[44.34821641877968, 50.18005820985743]</t>
+          <t>[42.478903897452724, 49.24650154698898]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.389973926813502</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 1.452868674633117]</t>
+          <t>[1.0377633390236563, 1.1887107337907326]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>51.05865897590046</v>
+        <v>52.88735303215507</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.255954317410236, 52.86136363439068]</t>
+          <t>[51.06867226326236, 54.70603380104778]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.51473473473479</v>
+        <v>18.43123123123128</v>
       </c>
       <c r="X3" t="n">
-        <v>17.28960960960967</v>
+        <v>18.16216216216221</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.73985985985992</v>
+        <v>18.70030030030035</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_8_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_8_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.51000000000008</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.787079315292003e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.751831202564349e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7521881406163592</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.5280221252621</v>
+        <v>48.04039709230442</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[43.70992394338282, 49.346120307141376]</t>
+          <t>[45.134351359303196, 50.94644282530565]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.616395018964117</v>
+        <v>1.553500271144503</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5535002711445012, 1.6792897667837332]</t>
+          <t>[1.490605523324887, 1.616395018964119]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.3326648698968</v>
+        <v>50.50636346578625</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.41068548570021, 53.25464425409339]</t>
+          <t>[48.51680286629128, 52.49592406528122]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.7191391391392</v>
+        <v>16.93693693693699</v>
       </c>
       <c r="X2" t="n">
-        <v>16.49381381381387</v>
+        <v>16.71171171171177</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.94446446446453</v>
+        <v>17.16216216216222</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.40000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.787079315292003e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6137674231351554</v>
-      </c>
+        <v>1.751831202564349e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.86270272222085</v>
+        <v>46.99486657664502</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[42.478903897452724, 49.24650154698898]</t>
+          <t>[44.01029505433901, 49.979438098951036]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.113237036407194</v>
+        <v>1.364816027685656</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.0377633390236563, 1.1887107337907326]</t>
+          <t>[1.2893423303021168, 1.4402897250691948]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.88735303215507</v>
+        <v>50.57193117500531</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.06867226326236, 54.70603380104778]</t>
+          <t>[48.74509419747598, 52.39876815253464]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.43123123123128</v>
+        <v>17.59695695695702</v>
       </c>
       <c r="X3" t="n">
-        <v>18.16216216216221</v>
+        <v>17.32692692692698</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.70030030030035</v>
+        <v>17.86698698698705</v>
       </c>
     </row>
   </sheetData>
